--- a/data/trans_bre/P1402-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1402-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.03597071330840029</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.088768569821273</v>
+        <v>2.08876856982127</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2066324602052353</v>
@@ -649,7 +649,7 @@
         <v>0.001821209248193083</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1113555754196775</v>
+        <v>0.1113555754196773</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.443745131944116</v>
+        <v>-0.3557379582177673</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.440086855497194</v>
+        <v>-2.312045542188025</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.123563932329959</v>
+        <v>-3.717578728489553</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.561641218092164</v>
+        <v>-2.026414337005702</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.03417283281244476</v>
+        <v>-0.03925074591530455</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1246774731108967</v>
+        <v>-0.1189468580310083</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.189883853991505</v>
+        <v>-0.1728123726926365</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.07478672635038898</v>
+        <v>-0.0972606535292022</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.982191118398356</v>
+        <v>5.126150299848291</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.24433304484584</v>
+        <v>4.034271835692576</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.114878436125977</v>
+        <v>3.913295003416094</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.338242926028566</v>
+        <v>5.429653986829755</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4805667220361101</v>
+        <v>0.4960840634213427</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2766959351381302</v>
+        <v>0.2660588854483072</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2281876374520793</v>
+        <v>0.2138499444940033</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3186877511911473</v>
+        <v>0.3267124010009692</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-1.665667371863682</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-3.071264579717555</v>
+        <v>-3.071264579717557</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.3061998092710975</v>
@@ -749,7 +749,7 @@
         <v>-0.278797254086956</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.4025519738167156</v>
+        <v>-0.4025519738167158</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.995146656859625</v>
+        <v>-2.044289372623591</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.800076878340768</v>
+        <v>-1.808109004813436</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.067155117805948</v>
+        <v>-3.15501582099799</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.446368837515204</v>
+        <v>-4.428587753695827</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5619624786849523</v>
+        <v>-0.5563054597089953</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4209516159808865</v>
+        <v>-0.4240900291876718</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4602492393813306</v>
+        <v>-0.4644845119117286</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5159807392788561</v>
+        <v>-0.5129635627056619</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1003837811929523</v>
+        <v>0.1483590003643434</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6093616792179959</v>
+        <v>0.6110519408168225</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.1986431619652056</v>
+        <v>-0.2914391197891196</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-1.954341558233388</v>
+        <v>-1.890489395248509</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05466987976592178</v>
+        <v>0.07411712286731152</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2031064447370494</v>
+        <v>0.2044991210519247</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.02990039985884179</v>
+        <v>-0.04810185053082139</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2794994667822573</v>
+        <v>-0.2715498858987077</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-1.677059912100948</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-4.096534637338591</v>
+        <v>-4.096534637338589</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.2293587729652946</v>
@@ -849,7 +849,7 @@
         <v>-0.3852801869977644</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.5867011193329704</v>
+        <v>-0.5867011193329703</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.406236160953472</v>
+        <v>-2.296441599341779</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.498361324936789</v>
+        <v>-3.282851343840936</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.437896862645449</v>
+        <v>-4.002054419328708</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.219389318248141</v>
+        <v>-6.269993431792964</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.7366723321865248</v>
+        <v>-0.7232162267501419</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.8331394038448983</v>
+        <v>-0.8507360897076343</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.70995739315239</v>
+        <v>-0.7012985229349938</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.7360854687965113</v>
+        <v>-0.7304113223352652</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.34725729462125</v>
+        <v>1.260289014480762</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6256463304700102</v>
+        <v>0.6140424097851602</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6620327579940043</v>
+        <v>0.631815915700692</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-2.111145606813205</v>
+        <v>-2.091987080460366</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.125803517045327</v>
+        <v>0.9349768515366998</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.584459637848176</v>
+        <v>0.5124984852275669</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2546711082386381</v>
+        <v>0.2193452978536763</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.3842977593581924</v>
+        <v>-0.3619106769346715</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.3750547389159642</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.505793930455307</v>
+        <v>-1.505793930455306</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1985130720634242</v>
@@ -949,7 +949,7 @@
         <v>-0.04267458101610635</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1615162470890819</v>
+        <v>-0.1615162470890817</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.07718657270353292</v>
+        <v>-0.0007360622200036495</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.37691654536593</v>
+        <v>-0.2676468964727431</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.690356717780464</v>
+        <v>-1.774037949741765</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.715140860433509</v>
+        <v>-2.639232860110229</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.008555191444737938</v>
+        <v>0.0007485658029931595</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.04161946067546739</v>
+        <v>-0.0371767198532907</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1790217086762054</v>
+        <v>-0.1896594778330678</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.268024056817365</v>
+        <v>-0.2590359847303328</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.18287150955579</v>
+        <v>2.252140859785278</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.385602602185937</v>
+        <v>2.455329941547609</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.104727635255223</v>
+        <v>1.002871889340542</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.3802677827220358</v>
+        <v>-0.3020069852296701</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4298690840248303</v>
+        <v>0.4403981079057042</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3561205776269477</v>
+        <v>0.3612806619627466</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1366759408127078</v>
+        <v>0.1250060561400052</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.04410959816902402</v>
+        <v>-0.03569397078946561</v>
       </c>
     </row>
     <row r="16">
